--- a/lab11.xlsx
+++ b/lab11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7632C7B-1AD8-1C4A-83B6-72D0BB53EFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6145D10E-3912-884C-9096-41C3780EA4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
   <si>
     <t>New</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Список значений:</t>
   </si>
   <si>
-    <t>Тест-план по системному тестированию Банковской системы</t>
-  </si>
-  <si>
     <t>Обеспечение корректного функционирования системы по работе со счетами клиентов</t>
   </si>
   <si>
@@ -345,19 +342,7 @@
     <t>отправить invalid params</t>
   </si>
   <si>
-    <t>Отчет о системном тестировании Банковской системы</t>
-  </si>
-  <si>
     <t>Неверная ошибка при отправке неверных параметров на авторизацию</t>
-  </si>
-  <si>
-    <t>Банковская система</t>
-  </si>
-  <si>
-    <t>Handlers.go</t>
-  </si>
-  <si>
-    <t>Marsel Garipov</t>
   </si>
   <si>
     <t xml:space="preserve">Краевой Никита https://github.com/treloiii
@@ -521,6 +506,18 @@
   </si>
   <si>
     <t>Система справляется с поставленными задачами</t>
+  </si>
+  <si>
+    <t>Отчет о системном тестировании Фотомастерской</t>
+  </si>
+  <si>
+    <t>Тест-план по системному тестированию Фотомастерской</t>
+  </si>
+  <si>
+    <t>Фотостудия</t>
+  </si>
+  <si>
+    <t>Controller.java</t>
   </si>
 </sst>
 </file>
@@ -1361,6 +1358,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1436,10 +1437,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1785,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="124" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="124" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1813,7 +1810,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1834,7 +1831,7 @@
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1916,58 +1913,58 @@
     <row r="10" spans="1:45" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="13">
         <v>2</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="71">
         <v>0.5</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="71" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="104"/>
+        <v>105</v>
+      </c>
+      <c r="K10" s="108"/>
       <c r="L10" s="15"/>
       <c r="AS10" s="1"/>
     </row>
     <row r="11" spans="1:45" s="69" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="70"/>
       <c r="B11" s="73" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="71">
         <v>0.5</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="105"/>
+        <v>105</v>
+      </c>
+      <c r="K11" s="109"/>
       <c r="L11" s="15"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2006,29 +2003,29 @@
     <row r="12" spans="1:45" s="69" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="70"/>
       <c r="B12" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="16">
         <v>2</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="71">
         <v>0.5</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="71" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="105"/>
+        <v>105</v>
+      </c>
+      <c r="K12" s="109"/>
       <c r="L12" s="15"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2067,29 +2064,29 @@
     <row r="13" spans="1:45" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="73" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="71">
         <v>0.5</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="71" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="106"/>
+        <v>105</v>
+      </c>
+      <c r="K13" s="110"/>
       <c r="L13" s="15"/>
       <c r="AS13" s="1"/>
     </row>
@@ -2230,26 +2227,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="113"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="26">
         <v>43955</v>
       </c>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -2280,10 +2277,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="27"/>
@@ -2349,10 +2346,10 @@
     </row>
     <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="27"/>
@@ -2364,10 +2361,10 @@
     </row>
     <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="27"/>
@@ -2390,7 +2387,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2404,7 +2401,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="27"/>
@@ -2418,7 +2415,7 @@
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="24"/>
@@ -2431,7 +2428,7 @@
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="24"/>
@@ -2442,11 +2439,11 @@
     </row>
     <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="24"/>
@@ -2458,7 +2455,7 @@
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="27"/>
@@ -2472,7 +2469,7 @@
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="24"/>
@@ -2485,7 +2482,7 @@
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="24"/>
@@ -2507,7 +2504,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2516,7 +2513,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="27"/>
@@ -2525,7 +2522,7 @@
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D23" s="27"/>
     </row>
@@ -2533,7 +2530,7 @@
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" s="27"/>
     </row>
@@ -2546,7 +2543,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="27"/>
@@ -2554,16 +2551,16 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="137" t="s">
-        <v>127</v>
+      <c r="C27" s="104" t="s">
+        <v>122</v>
       </c>
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="138" t="s">
-        <v>128</v>
+      <c r="C28" s="105" t="s">
+        <v>123</v>
       </c>
       <c r="D28" s="27"/>
     </row>
@@ -2576,7 +2573,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="27"/>
@@ -2585,7 +2582,7 @@
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D31" s="27"/>
     </row>
@@ -2593,7 +2590,7 @@
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D32" s="27"/>
     </row>
@@ -2601,7 +2598,7 @@
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D33" s="27"/>
     </row>
@@ -2643,7 +2640,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="33"/>
@@ -2657,12 +2654,12 @@
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="116"/>
-      <c r="B2" s="118" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="120" t="s">
-        <v>132</v>
+      <c r="C2" s="124" t="s">
+        <v>127</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
@@ -2673,9 +2670,9 @@
       <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="121"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="36"/>
       <c r="E3" s="37"/>
       <c r="F3" s="38" t="s">
@@ -2690,7 +2687,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
@@ -2718,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="49"/>
@@ -2822,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="58"/>
@@ -2836,18 +2833,18 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="23"/>
     </row>
@@ -2856,18 +2853,18 @@
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="23"/>
     </row>
@@ -2876,18 +2873,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15" s="23"/>
     </row>
@@ -2896,18 +2893,18 @@
         <v>5</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -2916,17 +2913,17 @@
         <v>87</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
+        <v>136</v>
+      </c>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C20" s="77" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E20" s="103"/>
       <c r="F20" s="100"/>
@@ -2934,15 +2931,15 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" s="77"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C22" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="127"/>
+        <v>137</v>
+      </c>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C23" s="77"/>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C24" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D24" s="79"/>
       <c r="E24" s="80"/>
@@ -2968,22 +2965,22 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C27" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D27" s="79"/>
       <c r="E27" s="80"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C28" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
+        <v>139</v>
+      </c>
+      <c r="D28" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C29" s="77"/>
@@ -2992,23 +2989,23 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C30" s="24"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C32" s="24"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3050,7 +3047,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="33"/>
@@ -3064,12 +3061,12 @@
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="116"/>
-      <c r="B2" s="118" t="s">
+      <c r="A2" s="120"/>
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="120" t="s">
-        <v>148</v>
+      <c r="C2" s="124" t="s">
+        <v>143</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
@@ -3080,9 +3077,9 @@
       <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="121"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="36"/>
       <c r="E3" s="37"/>
       <c r="F3" s="38" t="s">
@@ -3097,7 +3094,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
@@ -3125,7 +3122,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="49"/>
@@ -3231,11 +3228,11 @@
         <v>1</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C12" s="88"/>
       <c r="D12" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="89"/>
@@ -3247,18 +3244,18 @@
         <v>2</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
       <c r="G13" s="88" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H13" s="72"/>
     </row>
@@ -3267,18 +3264,18 @@
         <v>3</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="89"/>
       <c r="F14" s="89"/>
       <c r="G14" s="88" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H14" s="72"/>
     </row>
@@ -3287,18 +3284,18 @@
         <v>4</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="89"/>
       <c r="G15" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="72"/>
     </row>
@@ -3307,18 +3304,18 @@
         <v>5</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91"/>
       <c r="G16" s="88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -3327,82 +3324,82 @@
         <v>87</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
+        <v>115</v>
+      </c>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="128">
+        <v>151</v>
+      </c>
+      <c r="D20" s="132">
         <v>1</v>
       </c>
-      <c r="E20" s="128"/>
+      <c r="E20" s="132"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C21" s="77"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+        <v>152</v>
+      </c>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="128">
+        <v>151</v>
+      </c>
+      <c r="D23" s="132">
         <v>3000</v>
       </c>
-      <c r="E23" s="128"/>
+      <c r="E23" s="132"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="77"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
+        <v>116</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="129"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="127"/>
+        <v>151</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="131"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="77"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="127"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="127"/>
+        <v>95</v>
+      </c>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="124">
+        <v>154</v>
+      </c>
+      <c r="D29" s="128">
         <v>1</v>
       </c>
-      <c r="E29" s="125"/>
+      <c r="E29" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3430,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="155" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="155" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3440,11 +3437,11 @@
       <c r="A1" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="131" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
@@ -3465,13 +3462,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3565,26 +3562,26 @@
         <v>69</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="134" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
+      <c r="B12" s="138" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
     </row>
     <row r="13" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3613,7 +3610,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3624,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,7 +3645,7 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,7 +3745,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
